--- a/raw_data/20200818_saline/20200818_Sensor3_Test_15.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_15.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579BE94F-C52C-486D-858D-C0AF9C478CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>13157.834603</v>
+        <v>13157.834602999999</v>
       </c>
       <c r="B2" s="1">
         <v>3.654954</v>
       </c>
       <c r="C2" s="1">
-        <v>1140.690000</v>
+        <v>1140.69</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.204000</v>
+        <v>-258.20400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>13168.205949</v>
+        <v>13168.205948999999</v>
       </c>
       <c r="G2" s="1">
-        <v>3.657835</v>
+        <v>3.6578349999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.420000</v>
+        <v>1163.42</v>
       </c>
       <c r="I2" s="1">
-        <v>-216.697000</v>
+        <v>-216.697</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>13178.690913</v>
       </c>
       <c r="L2" s="1">
-        <v>3.660747</v>
+        <v>3.6607470000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1190.700000</v>
+        <v>1190.7</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.272000</v>
+        <v>-150.27199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>13188.825139</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.663563</v>
+        <v>3.6635629999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.970000</v>
+        <v>-127.97</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>13199.406324</v>
       </c>
       <c r="V2" s="1">
-        <v>3.666502</v>
+        <v>3.6665019999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.141000</v>
+        <v>-107.14100000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>13210.148647</v>
@@ -556,13 +972,13 @@
         <v>3.669486</v>
       </c>
       <c r="AB2" s="1">
-        <v>1212.840000</v>
+        <v>1212.8399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.009700</v>
+        <v>-90.009699999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>13220.693592</v>
@@ -571,210 +987,210 @@
         <v>3.672415</v>
       </c>
       <c r="AG2" s="1">
-        <v>1217.400000</v>
+        <v>1217.4000000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.581000</v>
+        <v>-85.581000000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>13231.116027</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.675310</v>
+        <v>3.6753100000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.812100</v>
+        <v>-88.812100000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>13241.677836</v>
+        <v>13241.677836000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.678244</v>
+        <v>3.6782439999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1232.270000</v>
+        <v>1232.27</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.759000</v>
+        <v>-100.759</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>13252.710846</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.681309</v>
+        <v>3.6813090000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.099000</v>
+        <v>-120.099</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>13264.083616</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.684468</v>
+        <v>3.6844679999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.576000</v>
+        <v>-137.57599999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>13274.718835</v>
       </c>
       <c r="BE2" s="1">
-        <v>3.687422</v>
+        <v>3.6874220000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1290.310000</v>
+        <v>1290.31</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.376000</v>
+        <v>-219.376</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>13285.428946</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.690397</v>
+        <v>3.6903969999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1359.080000</v>
+        <v>1359.08</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.653000</v>
+        <v>-355.65300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>13296.577060</v>
+        <v>13296.57706</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.693494</v>
+        <v>3.6934939999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.555000</v>
+        <v>-578.55499999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>13306.898774</v>
+        <v>13306.898773999999</v>
       </c>
       <c r="BT2" s="1">
         <v>3.696361</v>
       </c>
       <c r="BU2" s="1">
-        <v>1602.680000</v>
+        <v>1602.68</v>
       </c>
       <c r="BV2" s="1">
-        <v>-831.116000</v>
+        <v>-831.11599999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>13317.610376</v>
+        <v>13317.610376000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>3.699336</v>
+        <v>3.6993360000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1753.130000</v>
+        <v>1753.13</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1106.760000</v>
+        <v>-1106.76</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>13328.805081</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.702446</v>
+        <v>3.7024460000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2170.560000</v>
+        <v>2170.56</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1776.430000</v>
+        <v>-1776.43</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>13158.176843</v>
+        <v>13158.176842999999</v>
       </c>
       <c r="B3" s="1">
         <v>3.655049</v>
       </c>
       <c r="C3" s="1">
-        <v>1140.770000</v>
+        <v>1140.77</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.139000</v>
+        <v>-258.13900000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>13168.575965</v>
       </c>
       <c r="G3" s="1">
-        <v>3.657938</v>
+        <v>3.6579380000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1163.520000</v>
+        <v>1163.52</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.500000</v>
+        <v>-216.5</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>13179.032625</v>
       </c>
       <c r="L3" s="1">
-        <v>3.660842</v>
+        <v>3.6608420000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>1190.350000</v>
+        <v>1190.3499999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.300000</v>
+        <v>-150.30000000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>13189.560706</v>
@@ -783,193 +1199,193 @@
         <v>3.663767</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.966000</v>
+        <v>-127.96599999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>13200.122021</v>
+        <v>13200.122020999999</v>
       </c>
       <c r="V3" s="1">
-        <v>3.666701</v>
+        <v>3.6667010000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.075000</v>
+        <v>-107.075</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>13210.498325</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.669583</v>
+        <v>3.6695829999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.064800</v>
+        <v>-90.064800000000005</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>13221.029422</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.672508</v>
+        <v>3.6725080000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1217.320000</v>
+        <v>1217.32</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.600700</v>
+        <v>-85.600700000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>13231.492527</v>
       </c>
       <c r="AK3" s="1">
-        <v>3.675415</v>
+        <v>3.6754150000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.815000</v>
+        <v>-88.814999999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>13242.383645</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.678440</v>
+        <v>3.6784400000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1232.250000</v>
+        <v>1232.25</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.752000</v>
+        <v>-100.752</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>13253.410702</v>
+        <v>13253.410701999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.681503</v>
+        <v>3.6815030000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>1242.170000</v>
+        <v>1242.17</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.097000</v>
+        <v>-120.09699999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>13264.503728</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.684584</v>
+        <v>3.6845840000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1250.540000</v>
+        <v>1250.54</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.572000</v>
+        <v>-137.572</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>13275.081904</v>
+        <v>13275.081904000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.687523</v>
+        <v>3.6875230000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1290.290000</v>
+        <v>1290.29</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.353000</v>
+        <v>-219.35300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>13285.819298</v>
       </c>
       <c r="BJ3" s="1">
-        <v>3.690505</v>
+        <v>3.6905049999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.070000</v>
+        <v>1359.07</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.651000</v>
+        <v>-355.65100000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>13296.987715</v>
+        <v>13296.987714999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.693608</v>
+        <v>3.6936079999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.850000</v>
+        <v>1471.85</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.519000</v>
+        <v>-578.51900000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>13307.364023</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.696490</v>
+        <v>3.6964899999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1602.690000</v>
+        <v>1602.69</v>
       </c>
       <c r="BV3" s="1">
-        <v>-831.362000</v>
+        <v>-831.36199999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>13318.071161</v>
       </c>
       <c r="BY3" s="1">
-        <v>3.699464</v>
+        <v>3.6994639999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1752.960000</v>
+        <v>1752.96</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1106.790000</v>
+        <v>-1106.79</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>13329.099736</v>
@@ -978,1345 +1394,1345 @@
         <v>3.702528</v>
       </c>
       <c r="CE3" s="1">
-        <v>2172.000000</v>
+        <v>2172</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1777.280000</v>
+        <v>-1777.28</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>13158.520571</v>
+        <v>13158.520570999999</v>
       </c>
       <c r="B4" s="1">
-        <v>3.655145</v>
+        <v>3.6551450000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1140.670000</v>
+        <v>1140.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.169000</v>
+        <v>-258.16899999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>13168.919693</v>
       </c>
       <c r="G4" s="1">
-        <v>3.658033</v>
+        <v>3.6580330000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1162.560000</v>
+        <v>1162.56</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.145000</v>
+        <v>-217.14500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>13179.726748</v>
+        <v>13179.726747999999</v>
       </c>
       <c r="L4" s="1">
         <v>3.661035</v>
       </c>
       <c r="M4" s="1">
-        <v>1190.490000</v>
+        <v>1190.49</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.900000</v>
+        <v>-149.9</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>13189.906941</v>
+        <v>13189.906940999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.663863</v>
+        <v>3.6638630000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.993000</v>
+        <v>-127.99299999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>13200.467235</v>
       </c>
       <c r="V4" s="1">
-        <v>3.666796</v>
+        <v>3.6667960000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1205.490000</v>
+        <v>1205.49</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.056000</v>
+        <v>-107.056</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>13210.848502</v>
+        <v>13210.848502000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.669680</v>
+        <v>3.6696800000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1212.800000</v>
+        <v>1212.8</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.059400</v>
+        <v>-90.059399999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>13221.681625</v>
+        <v>13221.681624999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.672689</v>
+        <v>3.6726890000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1217.300000</v>
+        <v>1217.3</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.591500</v>
+        <v>-85.591499999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>13232.146251</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.675596</v>
+        <v>3.6755960000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.795200</v>
+        <v>-88.795199999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>13242.787396</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.678552</v>
+        <v>3.6785519999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1232.240000</v>
+        <v>1232.24</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.769000</v>
+        <v>-100.76900000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>13253.834312</v>
+        <v>13253.834312000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.681621</v>
+        <v>3.6816209999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1242.170000</v>
+        <v>1242.17</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.101000</v>
+        <v>-120.101</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>13264.861373</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.684684</v>
+        <v>3.6846839999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1250.550000</v>
+        <v>1250.55</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.552000</v>
+        <v>-137.55199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>13275.443488</v>
+        <v>13275.443488000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.687623</v>
+        <v>3.6876229999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1290.290000</v>
+        <v>1290.29</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.362000</v>
+        <v>-219.36199999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>13286.195762</v>
+        <v>13286.195761999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.690610</v>
+        <v>3.6906099999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1359.070000</v>
+        <v>1359.07</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.650000</v>
+        <v>-355.65</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>13297.398901</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.693722</v>
+        <v>3.6937220000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1471.860000</v>
+        <v>1471.86</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.524000</v>
+        <v>-578.524</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>13307.795542</v>
       </c>
       <c r="BT4" s="1">
-        <v>3.696610</v>
+        <v>3.6966100000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1602.540000</v>
+        <v>1602.54</v>
       </c>
       <c r="BV4" s="1">
-        <v>-831.511000</v>
+        <v>-831.51099999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>13318.512103</v>
+        <v>13318.512102999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>3.699587</v>
+        <v>3.6995870000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1753.150000</v>
+        <v>1753.15</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1106.940000</v>
+        <v>-1106.94</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>13329.631912</v>
+        <v>13329.631912000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.702676</v>
+        <v>3.7026759999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2169.390000</v>
+        <v>2169.39</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1777.500000</v>
+        <v>-1777.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>13159.204094</v>
+        <v>13159.204094000001</v>
       </c>
       <c r="B5" s="1">
-        <v>3.655334</v>
+        <v>3.6553339999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1140.720000</v>
+        <v>1140.72</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.484000</v>
+        <v>-258.48399999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>13169.608140</v>
+        <v>13169.60814</v>
       </c>
       <c r="G5" s="1">
-        <v>3.658224</v>
+        <v>3.6582240000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.380000</v>
+        <v>1163.3800000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.672000</v>
+        <v>-216.672</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>13180.069758</v>
       </c>
       <c r="L5" s="1">
-        <v>3.661130</v>
+        <v>3.66113</v>
       </c>
       <c r="M5" s="1">
-        <v>1190.400000</v>
+        <v>1190.4000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.124000</v>
+        <v>-150.124</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>13190.256625</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.663960</v>
+        <v>3.6639599999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.180000</v>
+        <v>1198.18</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.981000</v>
+        <v>-127.98099999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>13200.809970</v>
+        <v>13200.80997</v>
       </c>
       <c r="V5" s="1">
-        <v>3.666892</v>
+        <v>3.6668919999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.085000</v>
+        <v>-107.08499999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>13211.514628</v>
+        <v>13211.514628000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.669865</v>
+        <v>3.6698650000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>1212.930000</v>
+        <v>1212.93</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.099300</v>
+        <v>-90.099299999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>13222.061063</v>
+        <v>13222.061062999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.672795</v>
+        <v>3.6727949999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1217.330000</v>
+        <v>1217.33</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.564600</v>
+        <v>-85.564599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>13232.538770</v>
+        <v>13232.538769999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.675705</v>
+        <v>3.6757049999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.806400</v>
+        <v>-88.806399999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>13243.171290</v>
+        <v>13243.17129</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.678659</v>
+        <v>3.6786590000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1232.230000</v>
+        <v>1232.23</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.763000</v>
+        <v>-100.76300000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>13254.196364</v>
+        <v>13254.196363999999</v>
       </c>
       <c r="AU5" s="1">
         <v>3.681721</v>
       </c>
       <c r="AV5" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.126000</v>
+        <v>-120.126</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>13265.221934</v>
+        <v>13265.221933999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.684784</v>
+        <v>3.6847840000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1250.570000</v>
+        <v>1250.57</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.536000</v>
+        <v>-137.536</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>13275.864095</v>
+        <v>13275.864095000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.687740</v>
+        <v>3.6877399999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1290.280000</v>
+        <v>1290.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.361000</v>
+        <v>-219.36099999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>13286.674402</v>
+        <v>13286.674402000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>3.690743</v>
+        <v>3.6907429999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.060000</v>
+        <v>1359.06</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.662000</v>
+        <v>-355.66199999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>13297.793218</v>
+        <v>13297.793218000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.693831</v>
+        <v>3.6938309999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.520000</v>
+        <v>-578.52</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>13308.207718</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.696724</v>
+        <v>3.6967240000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1602.280000</v>
+        <v>1602.28</v>
       </c>
       <c r="BV5" s="1">
-        <v>-831.735000</v>
+        <v>-831.73500000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>13318.955528</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.699710</v>
+        <v>3.6997100000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1753.090000</v>
+        <v>1753.09</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1106.950000</v>
+        <v>-1106.95</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>13330.174076</v>
+        <v>13330.174075999999</v>
       </c>
       <c r="CD5" s="1">
         <v>3.702826</v>
       </c>
       <c r="CE5" s="1">
-        <v>2171.400000</v>
+        <v>2171.4</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1779.080000</v>
+        <v>-1779.08</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>13159.549273</v>
+        <v>13159.549273000001</v>
       </c>
       <c r="B6" s="1">
-        <v>3.655430</v>
+        <v>3.65543</v>
       </c>
       <c r="C6" s="1">
-        <v>1140.960000</v>
+        <v>1140.96</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.316000</v>
+        <v>-258.31599999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>13169.954348</v>
+        <v>13169.954347999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3.658321</v>
+        <v>3.6583209999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.220000</v>
+        <v>1163.22</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.094000</v>
+        <v>-216.09399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>13180.415498</v>
       </c>
       <c r="L6" s="1">
-        <v>3.661227</v>
+        <v>3.6612269999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>1190.620000</v>
+        <v>1190.6199999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.527000</v>
+        <v>-150.52699999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>13190.914785</v>
+        <v>13190.914785000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.664143</v>
+        <v>3.6641430000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.190000</v>
+        <v>1198.19</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.967000</v>
+        <v>-127.967</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>13201.469155</v>
+        <v>13201.469155000001</v>
       </c>
       <c r="V6" s="1">
-        <v>3.667075</v>
+        <v>3.6670750000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.015000</v>
+        <v>-107.015</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>13211.894565</v>
+        <v>13211.894565000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.669971</v>
+        <v>3.6699709999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.112500</v>
+        <v>-90.112499999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>13222.404294</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.672890</v>
+        <v>3.6728900000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1217.250000</v>
+        <v>1217.25</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.439100</v>
+        <v>-85.439099999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>13232.890712</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.675803</v>
+        <v>3.6758030000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.783000</v>
+        <v>-88.783000000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>13243.550234</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.678764</v>
+        <v>3.6787640000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1232.250000</v>
+        <v>1232.25</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.778000</v>
+        <v>-100.77800000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>13254.618956</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.681839</v>
+        <v>3.6818390000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1242.140000</v>
+        <v>1242.1400000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.136000</v>
+        <v>-120.136</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>13265.640594</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.684900</v>
+        <v>3.6848999999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.568000</v>
+        <v>-137.56800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>13276.164208</v>
       </c>
       <c r="BE6" s="1">
-        <v>3.687823</v>
+        <v>3.6878229999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1290.280000</v>
+        <v>1290.28</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.378000</v>
+        <v>-219.37799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>13286.956129</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.690821</v>
+        <v>3.6908210000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1359.120000</v>
+        <v>1359.12</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.673000</v>
+        <v>-355.673</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>13298.217298</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.693949</v>
+        <v>3.6939489999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.860000</v>
+        <v>1471.86</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.567000</v>
+        <v>-578.56700000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>13308.640725</v>
+        <v>13308.640724999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.696845</v>
+        <v>3.6968450000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1602.130000</v>
+        <v>1602.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-831.615000</v>
+        <v>-831.61500000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>13319.743174</v>
+        <v>13319.743173999999</v>
       </c>
       <c r="BY6" s="1">
         <v>3.699929</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1753.040000</v>
+        <v>1753.04</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1106.800000</v>
+        <v>-1106.8</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>13330.710712</v>
       </c>
       <c r="CD6" s="1">
-        <v>3.702975</v>
+        <v>3.7029749999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2171.310000</v>
+        <v>2171.31</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1776.540000</v>
+        <v>-1776.54</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>13159.895481</v>
       </c>
       <c r="B7" s="1">
-        <v>3.655527</v>
+        <v>3.6555270000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1140.700000</v>
+        <v>1140.7</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.177000</v>
+        <v>-258.17700000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>13170.305021</v>
       </c>
       <c r="G7" s="1">
-        <v>3.658418</v>
+        <v>3.6584180000000002</v>
       </c>
       <c r="H7" s="1">
-        <v>1162.850000</v>
+        <v>1162.8499999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.418000</v>
+        <v>-216.41800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>13181.069198</v>
+        <v>13181.069197999999</v>
       </c>
       <c r="L7" s="1">
-        <v>3.661408</v>
+        <v>3.6614080000000002</v>
       </c>
       <c r="M7" s="1">
-        <v>1190.270000</v>
+        <v>1190.27</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.347000</v>
+        <v>-150.34700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>13191.302655</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.664251</v>
+        <v>3.6642510000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.921000</v>
+        <v>-127.92100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>13201.847634</v>
       </c>
       <c r="V7" s="1">
-        <v>3.667180</v>
+        <v>3.6671800000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>1205.450000</v>
+        <v>1205.45</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.066000</v>
+        <v>-107.066</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>13212.242261</v>
+        <v>13212.242260999999</v>
       </c>
       <c r="AA7" s="1">
         <v>3.670067</v>
       </c>
       <c r="AB7" s="1">
-        <v>1212.690000</v>
+        <v>1212.69</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.003400</v>
+        <v>-90.003399999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>13222.747067</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.672985</v>
+        <v>3.6729850000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1217.260000</v>
+        <v>1217.26</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.480600</v>
+        <v>-85.480599999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>13233.235960</v>
+        <v>13233.23596</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.675899</v>
+        <v>3.6758989999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.770900</v>
+        <v>-88.770899999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>13243.962409</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.678878</v>
+        <v>3.6788780000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1232.260000</v>
+        <v>1232.26</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.756000</v>
+        <v>-100.756</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>13254.925980</v>
+        <v>13254.92598</v>
       </c>
       <c r="AU7" s="1">
         <v>3.681924</v>
       </c>
       <c r="AV7" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.112000</v>
+        <v>-120.11199999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>13265.939644</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.684983</v>
+        <v>3.6849829999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.570000</v>
+        <v>1250.57</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.554000</v>
+        <v>-137.554</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>13276.524302</v>
       </c>
       <c r="BE7" s="1">
-        <v>3.687923</v>
+        <v>3.6879230000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1290.290000</v>
+        <v>1290.29</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.370000</v>
+        <v>-219.37</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>13287.333818</v>
+        <v>13287.333817999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.690926</v>
+        <v>3.6909260000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1359.100000</v>
+        <v>1359.1</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.669000</v>
+        <v>-355.66899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>13298.612609</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.694059</v>
+        <v>3.6940590000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.810000</v>
+        <v>1471.81</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.577000</v>
+        <v>-578.577</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>13309.068275</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.696963</v>
+        <v>3.6969630000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1601.810000</v>
+        <v>1601.81</v>
       </c>
       <c r="BV7" s="1">
-        <v>-831.629000</v>
+        <v>-831.62900000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>13319.851301</v>
+        <v>13319.851301000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.699959</v>
+        <v>3.6999590000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1753.250000</v>
+        <v>1753.25</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1106.870000</v>
+        <v>-1106.8699999999999</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>13331.255318</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.703126</v>
+        <v>3.7031260000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2169.570000</v>
+        <v>2169.5700000000002</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1778.960000</v>
+        <v>-1778.96</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>13160.538327</v>
       </c>
       <c r="B8" s="1">
-        <v>3.655705</v>
+        <v>3.6557050000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1140.900000</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.090000</v>
+        <v>-258.08999999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>13170.960235</v>
       </c>
       <c r="G8" s="1">
-        <v>3.658600</v>
+        <v>3.6585999999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1162.710000</v>
+        <v>1162.71</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.356000</v>
+        <v>-216.35599999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>13181.454589</v>
+        <v>13181.454589000001</v>
       </c>
       <c r="L8" s="1">
-        <v>3.661515</v>
+        <v>3.6615150000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1190.610000</v>
+        <v>1190.6099999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.190000</v>
+        <v>-150.19</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>13191.646878</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.664346</v>
+        <v>3.6643460000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.230000</v>
+        <v>1198.23</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.923000</v>
+        <v>-127.923</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>13202.193841</v>
       </c>
       <c r="V8" s="1">
-        <v>3.667276</v>
+        <v>3.6672760000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.081000</v>
+        <v>-107.081</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>13212.593459</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.670165</v>
+        <v>3.6701649999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1212.830000</v>
+        <v>1212.83</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.039200</v>
+        <v>-90.039199999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>13223.170149</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.673103</v>
+        <v>3.6731029999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1217.270000</v>
+        <v>1217.27</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.444900</v>
+        <v>-85.444900000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>13233.659015</v>
+        <v>13233.659014999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.676016</v>
+        <v>3.6760160000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.790600</v>
+        <v>-88.790599999999998</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>13244.273428</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.678965</v>
+        <v>3.6789649999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1232.220000</v>
+        <v>1232.22</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.784000</v>
+        <v>-100.78400000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>13255.293514</v>
+        <v>13255.293514000001</v>
       </c>
       <c r="AU8" s="1">
         <v>3.682026</v>
       </c>
       <c r="AV8" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.108000</v>
+        <v>-120.108</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>13266.298253</v>
+        <v>13266.298253000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>3.685083</v>
+        <v>3.6850830000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.579000</v>
+        <v>-137.57900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>13276.887838</v>
+        <v>13276.887838000001</v>
       </c>
       <c r="BE8" s="1">
         <v>3.688024</v>
       </c>
       <c r="BF8" s="1">
-        <v>1290.270000</v>
+        <v>1290.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.324000</v>
+        <v>-219.32400000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>13288.106847</v>
+        <v>13288.106846999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>3.691141</v>
       </c>
       <c r="BK8" s="1">
-        <v>1359.090000</v>
+        <v>1359.09</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.636000</v>
+        <v>-355.63600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>13299.045649</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.694179</v>
+        <v>3.6941790000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.840000</v>
+        <v>1471.84</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.535000</v>
+        <v>-578.53499999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>13309.481939</v>
+        <v>13309.481938999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.697078</v>
+        <v>3.6970779999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1601.740000</v>
+        <v>1601.74</v>
       </c>
       <c r="BV8" s="1">
-        <v>-831.411000</v>
+        <v>-831.41099999999994</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>13320.276372</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.700077</v>
+        <v>3.7000769999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1753.130000</v>
+        <v>1753.13</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1106.920000</v>
+        <v>-1106.92</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>13331.794501</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.703276</v>
+        <v>3.7032759999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>2171.910000</v>
+        <v>2171.91</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1778.260000</v>
+        <v>-1778.26</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>13160.919719</v>
       </c>
       <c r="B9" s="1">
-        <v>3.655811</v>
+        <v>3.6558109999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1140.920000</v>
+        <v>1140.92</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.026000</v>
+        <v>-258.02600000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>13171.346121</v>
       </c>
       <c r="G9" s="1">
-        <v>3.658707</v>
+        <v>3.6587070000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.040000</v>
+        <v>1163.04</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.401000</v>
+        <v>-216.40100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>13181.799307</v>
+        <v>13181.799306999999</v>
       </c>
       <c r="L9" s="1">
-        <v>3.661611</v>
+        <v>3.6616110000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>1190.440000</v>
+        <v>1190.44</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.374000</v>
+        <v>-150.374</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>13191.999038</v>
@@ -2325,148 +2741,148 @@
         <v>3.664444</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.240000</v>
+        <v>1198.24</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.980000</v>
+        <v>-127.98</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>13202.539025</v>
       </c>
       <c r="V9" s="1">
-        <v>3.667372</v>
+        <v>3.6673719999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.127000</v>
+        <v>-107.127</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>13213.021970</v>
+        <v>13213.02197</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.670284</v>
+        <v>3.6702840000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1213.000000</v>
+        <v>1213</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.268300</v>
+        <v>-90.268299999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>13223.461269</v>
+        <v>13223.461268999999</v>
       </c>
       <c r="AF9" s="1">
         <v>3.673184</v>
       </c>
       <c r="AG9" s="1">
-        <v>1217.300000</v>
+        <v>1217.3</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.621500</v>
+        <v>-85.621499999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>13233.937767</v>
+        <v>13233.937766999999</v>
       </c>
       <c r="AK9" s="1">
         <v>3.676094</v>
       </c>
       <c r="AL9" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.809400</v>
+        <v>-88.809399999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>13244.633497</v>
+        <v>13244.633497000001</v>
       </c>
       <c r="AP9" s="1">
         <v>3.679065</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1232.230000</v>
+        <v>1232.23</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.759000</v>
+        <v>-100.759</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>13255.658075</v>
+        <v>13255.658074999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.682127</v>
+        <v>3.6821269999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1242.180000</v>
+        <v>1242.18</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.108000</v>
+        <v>-120.108</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>13266.656395</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.685182</v>
+        <v>3.6851820000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1250.580000</v>
+        <v>1250.58</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.561000</v>
+        <v>-137.56100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>13277.609054</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.688225</v>
+        <v>3.6882250000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1290.300000</v>
+        <v>1290.3</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.350000</v>
+        <v>-219.35</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>13288.482826</v>
+        <v>13288.482825999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.691245</v>
+        <v>3.6912449999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1359.090000</v>
+        <v>1359.09</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.673000</v>
+        <v>-355.673</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>13299.430016</v>
@@ -2475,90 +2891,90 @@
         <v>3.694286</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.880000</v>
+        <v>1471.88</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.579000</v>
+        <v>-578.57899999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>13309.909490</v>
+        <v>13309.90949</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.697197</v>
+        <v>3.6971970000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1601.680000</v>
+        <v>1601.68</v>
       </c>
       <c r="BV9" s="1">
-        <v>-831.110000</v>
+        <v>-831.11</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>13321.004532</v>
+        <v>13321.004532000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.700279</v>
+        <v>3.7002790000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1753.030000</v>
+        <v>1753.03</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1106.890000</v>
+        <v>-1106.8900000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>13332.648084</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.703513</v>
+        <v>3.7035130000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2169.990000</v>
+        <v>2169.9899999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1778.740000</v>
+        <v>-1778.74</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>13161.266961</v>
+        <v>13161.266960999999</v>
       </c>
       <c r="B10" s="1">
         <v>3.655907</v>
       </c>
       <c r="C10" s="1">
-        <v>1140.660000</v>
+        <v>1140.6600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.401000</v>
+        <v>-258.40100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>13171.690877</v>
+        <v>13171.690877000001</v>
       </c>
       <c r="G10" s="1">
-        <v>3.658803</v>
+        <v>3.6588029999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1162.670000</v>
+        <v>1162.67</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.097000</v>
+        <v>-216.09700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>13182.147035</v>
@@ -2567,58 +2983,58 @@
         <v>3.661708</v>
       </c>
       <c r="M10" s="1">
-        <v>1190.540000</v>
+        <v>1190.54</v>
       </c>
       <c r="N10" s="1">
-        <v>-149.950000</v>
+        <v>-149.94999999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>13192.407774</v>
+        <v>13192.407773999999</v>
       </c>
       <c r="Q10" s="1">
         <v>3.664558</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.018000</v>
+        <v>-128.018</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>13202.960624</v>
+        <v>13202.960623999999</v>
       </c>
       <c r="V10" s="1">
-        <v>3.667489</v>
+        <v>3.6674890000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.115000</v>
+        <v>-107.11499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>13213.306674</v>
+        <v>13213.306673999999</v>
       </c>
       <c r="AA10" s="1">
         <v>3.670363</v>
       </c>
       <c r="AB10" s="1">
-        <v>1212.850000</v>
+        <v>1212.8499999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.965700</v>
+        <v>-89.965699999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>13223.803542</v>
@@ -2627,148 +3043,148 @@
         <v>3.673279</v>
       </c>
       <c r="AG10" s="1">
-        <v>1217.280000</v>
+        <v>1217.28</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.525700</v>
+        <v>-85.525700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>13234.285462</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.676190</v>
+        <v>3.6761900000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.807100</v>
+        <v>-88.807100000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>13244.991112</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.679164</v>
+        <v>3.6791640000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1232.230000</v>
+        <v>1232.23</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.769000</v>
+        <v>-100.76900000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>13256.383721</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.682329</v>
+        <v>3.6823290000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.091000</v>
+        <v>-120.09099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>13267.371596</v>
+        <v>13267.371596000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>3.685381</v>
       </c>
       <c r="BA10" s="1">
-        <v>1250.580000</v>
+        <v>1250.58</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.589000</v>
+        <v>-137.589</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>13277.996434</v>
+        <v>13277.996434000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.688332</v>
+        <v>3.6883319999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1290.270000</v>
+        <v>1290.27</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.350000</v>
+        <v>-219.35</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>13288.856800</v>
+        <v>13288.8568</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.691349</v>
+        <v>3.6913490000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1359.080000</v>
+        <v>1359.08</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.690000</v>
+        <v>-355.69</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>13299.849432</v>
+        <v>13299.849432000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.694403</v>
+        <v>3.6944029999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1471.840000</v>
+        <v>1471.84</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.539000</v>
+        <v>-578.53899999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>13310.648542</v>
+        <v>13310.648542000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.697402</v>
+        <v>3.6974019999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1601.880000</v>
+        <v>1601.88</v>
       </c>
       <c r="BV10" s="1">
-        <v>-830.956000</v>
+        <v>-830.95600000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>13321.138457</v>
+        <v>13321.138456999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.700316</v>
+        <v>3.7003159999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1753.220000</v>
+        <v>1753.22</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1106.980000</v>
+        <v>-1106.98</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>13332.872276</v>
@@ -2777,16 +3193,16 @@
         <v>3.703576</v>
       </c>
       <c r="CE10" s="1">
-        <v>2169.770000</v>
+        <v>2169.77</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1778.650000</v>
+        <v>-1778.65</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>13161.608698</v>
       </c>
@@ -2794,223 +3210,223 @@
         <v>3.656002</v>
       </c>
       <c r="C11" s="1">
-        <v>1140.710000</v>
+        <v>1140.71</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.444000</v>
+        <v>-258.44400000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>13172.113929</v>
+        <v>13172.113928999999</v>
       </c>
       <c r="G11" s="1">
-        <v>3.658921</v>
+        <v>3.6589209999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.150000</v>
+        <v>1163.1500000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-216.719000</v>
+        <v>-216.71899999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>13182.563643</v>
       </c>
       <c r="L11" s="1">
-        <v>3.661823</v>
+        <v>3.6618230000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1190.700000</v>
+        <v>1190.7</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.329000</v>
+        <v>-150.32900000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>13192.702861</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.664640</v>
+        <v>3.6646399999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.977000</v>
+        <v>-127.977</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>13203.234946</v>
       </c>
       <c r="V11" s="1">
-        <v>3.667565</v>
+        <v>3.6675650000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1205.480000</v>
+        <v>1205.48</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.081000</v>
+        <v>-107.081</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>13213.655857</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.670460</v>
+        <v>3.6704599999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>1212.820000</v>
+        <v>1212.82</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.040700</v>
+        <v>-90.040700000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>13224.147764</v>
+        <v>13224.147763999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.673374</v>
+        <v>3.6733739999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.412900</v>
+        <v>-85.412899999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>13234.633159</v>
+        <v>13234.633159000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.676287</v>
+        <v>3.6762869999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.786200</v>
+        <v>-88.786199999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>13245.710344</v>
+        <v>13245.710343999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>3.679364</v>
+        <v>3.6793640000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1232.180000</v>
+        <v>1232.18</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.792000</v>
+        <v>-100.792</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>13256.753241</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.682431</v>
+        <v>3.6824309999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.180000</v>
+        <v>1242.18</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.106000</v>
+        <v>-120.10599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>13267.733211</v>
+        <v>13267.733211000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.685481</v>
+        <v>3.6854809999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1250.570000</v>
+        <v>1250.57</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.575000</v>
+        <v>-137.57499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>13278.378813</v>
+        <v>13278.378812999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.688439</v>
+        <v>3.6884389999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1290.300000</v>
+        <v>1290.3</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.378000</v>
+        <v>-219.37799999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>13289.552190</v>
+        <v>13289.55219</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.691542</v>
+        <v>3.6915420000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1359.100000</v>
+        <v>1359.1</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.689000</v>
+        <v>-355.68900000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>13300.558943</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.694600</v>
+        <v>3.6945999999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1471.820000</v>
+        <v>1471.82</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.543000</v>
+        <v>-578.54300000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>13310.785921</v>
+        <v>13310.785921000001</v>
       </c>
       <c r="BT11" s="1">
         <v>3.697441</v>
       </c>
       <c r="BU11" s="1">
-        <v>1602.070000</v>
+        <v>1602.07</v>
       </c>
       <c r="BV11" s="1">
-        <v>-830.835000</v>
+        <v>-830.83500000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>13321.564022</v>
@@ -3019,60 +3435,60 @@
         <v>3.700434</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1752.960000</v>
+        <v>1752.96</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1106.840000</v>
+        <v>-1106.8399999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>13333.391092</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.703720</v>
+        <v>3.7037200000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2171.750000</v>
+        <v>2171.75</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1778.980000</v>
+        <v>-1778.98</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>13162.028775</v>
+        <v>13162.028775000001</v>
       </c>
       <c r="B12" s="1">
-        <v>3.656119</v>
+        <v>3.6561189999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1140.840000</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.349000</v>
+        <v>-258.34899999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>13172.394050</v>
+        <v>13172.394050000001</v>
       </c>
       <c r="G12" s="1">
         <v>3.658998</v>
       </c>
       <c r="H12" s="1">
-        <v>1162.820000</v>
+        <v>1162.82</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.259000</v>
+        <v>-216.25899999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>13182.858762</v>
@@ -3081,13 +3497,13 @@
         <v>3.661905</v>
       </c>
       <c r="M12" s="1">
-        <v>1190.430000</v>
+        <v>1190.43</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.032000</v>
+        <v>-150.03200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>13193.050557</v>
@@ -3096,103 +3512,103 @@
         <v>3.664736</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.170000</v>
+        <v>1198.17</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.948000</v>
+        <v>-127.94799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>13203.580127</v>
+        <v>13203.580126999999</v>
       </c>
       <c r="V12" s="1">
-        <v>3.667661</v>
+        <v>3.6676609999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.126000</v>
+        <v>-107.126</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>13214.006048</v>
+        <v>13214.006047999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.670557</v>
+        <v>3.6705570000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1212.760000</v>
+        <v>1212.76</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.131000</v>
+        <v>-90.131</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>13224.834195</v>
+        <v>13224.834194999999</v>
       </c>
       <c r="AF12" s="1">
         <v>3.673565</v>
       </c>
       <c r="AG12" s="1">
-        <v>1217.190000</v>
+        <v>1217.19</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.442700</v>
+        <v>-85.442700000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>13235.330565</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.676481</v>
+        <v>3.6764809999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.804700</v>
+        <v>-88.804699999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>13246.070737</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.679464</v>
+        <v>3.6794639999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1232.210000</v>
+        <v>1232.21</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.798000</v>
+        <v>-100.798</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>13257.115816</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.682532</v>
+        <v>3.6825320000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.114000</v>
+        <v>-120.114</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>13268.092283</v>
@@ -3201,106 +3617,106 @@
         <v>3.685581</v>
       </c>
       <c r="BA12" s="1">
-        <v>1250.580000</v>
+        <v>1250.58</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.586000</v>
+        <v>-137.58600000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>13279.045437</v>
+        <v>13279.045437000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.688624</v>
+        <v>3.6886239999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1290.310000</v>
+        <v>1290.31</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.357000</v>
+        <v>-219.357</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>13290.015452</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.691671</v>
+        <v>3.6916709999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.020000</v>
+        <v>1359.02</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.658000</v>
+        <v>-355.65800000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>13300.671502</v>
+        <v>13300.671501999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.694631</v>
+        <v>3.6946310000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.583000</v>
+        <v>-578.58299999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>13311.196114</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.697554</v>
+        <v>3.6975539999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1602.320000</v>
+        <v>1602.32</v>
       </c>
       <c r="BV12" s="1">
-        <v>-830.780000</v>
+        <v>-830.78</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>13321.988563</v>
+        <v>13321.988563000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.700552</v>
+        <v>3.7005520000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1752.940000</v>
+        <v>1752.94</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1106.970000</v>
+        <v>-1106.97</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>13333.908456</v>
+        <v>13333.908455999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.703863</v>
+        <v>3.7038630000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2171.130000</v>
+        <v>2171.13</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1779.390000</v>
+        <v>-1779.39</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>13162.305578</v>
       </c>
@@ -3308,223 +3724,223 @@
         <v>3.656196</v>
       </c>
       <c r="C13" s="1">
-        <v>1140.930000</v>
+        <v>1140.93</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.160000</v>
+        <v>-258.16000000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>13172.738926</v>
       </c>
       <c r="G13" s="1">
-        <v>3.659094</v>
+        <v>3.6590940000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1162.800000</v>
+        <v>1162.8</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.174000</v>
+        <v>-217.17400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>13183.202986</v>
       </c>
       <c r="L13" s="1">
-        <v>3.662001</v>
+        <v>3.6620010000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1190.640000</v>
+        <v>1190.6400000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.634000</v>
+        <v>-150.63399999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>13193.397293</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.664833</v>
+        <v>3.6648329999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.922000</v>
+        <v>-127.922</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>13203.925380</v>
+        <v>13203.925380000001</v>
       </c>
       <c r="V13" s="1">
-        <v>3.667757</v>
+        <v>3.6677569999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.047000</v>
+        <v>-107.047</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>13214.702914</v>
       </c>
       <c r="AA13" s="1">
-        <v>3.670751</v>
+        <v>3.6707510000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1212.750000</v>
+        <v>1212.75</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.097100</v>
+        <v>-90.097099999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>13225.179412</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.673661</v>
+        <v>3.6736610000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1217.370000</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.360700</v>
+        <v>-85.360699999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>13235.679221</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.676578</v>
+        <v>3.6765780000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1224.350000</v>
+        <v>1224.3499999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.815500</v>
+        <v>-88.8155</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>13246.434006</v>
+        <v>13246.434005999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.679565</v>
+        <v>3.6795650000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1232.230000</v>
+        <v>1232.23</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.795000</v>
+        <v>-100.795</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>13257.790375</v>
       </c>
       <c r="AU13" s="1">
-        <v>3.682720</v>
+        <v>3.6827200000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.180000</v>
+        <v>1242.18</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.110000</v>
+        <v>-120.11</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>13268.762376</v>
+        <v>13268.762376000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.685767</v>
+        <v>3.6857669999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.540000</v>
+        <v>-137.54</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>13279.459098</v>
+        <v>13279.459097999999</v>
       </c>
       <c r="BE13" s="1">
         <v>3.688739</v>
       </c>
       <c r="BF13" s="1">
-        <v>1290.290000</v>
+        <v>1290.29</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.350000</v>
+        <v>-219.35</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>13290.404348</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3.691779</v>
+        <v>3.6917789999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1359.080000</v>
+        <v>1359.08</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.710000</v>
+        <v>-355.71</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>13301.095582</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.694749</v>
+        <v>3.6947489999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.820000</v>
+        <v>1471.82</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.631000</v>
+        <v>-578.63099999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>13311.625152</v>
+        <v>13311.625152000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.697674</v>
+        <v>3.6976740000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1602.480000</v>
+        <v>1602.48</v>
       </c>
       <c r="BV13" s="1">
-        <v>-830.952000</v>
+        <v>-830.952</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>13322.418098</v>
@@ -3533,225 +3949,225 @@
         <v>3.700672</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1752.930000</v>
+        <v>1752.93</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1106.920000</v>
+        <v>-1106.92</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>13334.462789</v>
+        <v>13334.462788999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.704017</v>
+        <v>3.7040169999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>2169.640000</v>
+        <v>2169.64</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1778.150000</v>
+        <v>-1778.15</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>13162.646328</v>
+        <v>13162.646328000001</v>
       </c>
       <c r="B14" s="1">
         <v>3.656291</v>
       </c>
       <c r="C14" s="1">
-        <v>1140.840000</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.382000</v>
+        <v>-258.38200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>13173.085130</v>
+        <v>13173.085129999999</v>
       </c>
       <c r="G14" s="1">
-        <v>3.659190</v>
+        <v>3.6591900000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1162.660000</v>
+        <v>1162.6600000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.796000</v>
+        <v>-216.79599999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>13183.550186</v>
       </c>
       <c r="L14" s="1">
-        <v>3.662097</v>
+        <v>3.6620970000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1190.260000</v>
+        <v>1190.26</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.133000</v>
+        <v>-150.13300000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>13194.097147</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.665027</v>
+        <v>3.6650269999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.998000</v>
+        <v>-127.998</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>13204.609821</v>
       </c>
       <c r="V14" s="1">
-        <v>3.667947</v>
+        <v>3.6679469999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.029000</v>
+        <v>-107.029</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>13215.039696</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.670844</v>
+        <v>3.6708440000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1212.860000</v>
+        <v>1212.8599999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.042900</v>
+        <v>-90.042900000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>13225.523634</v>
+        <v>13225.523633999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.673757</v>
+        <v>3.6737570000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1217.210000</v>
+        <v>1217.21</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.433700</v>
+        <v>-85.433700000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>13236.029396</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.676675</v>
+        <v>3.6766749999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.790200</v>
+        <v>-88.790199999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>13247.101591</v>
+        <v>13247.101591000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.679750</v>
+        <v>3.6797499999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1232.220000</v>
+        <v>1232.22</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.788000</v>
+        <v>-100.788</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>13258.238264</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.682844</v>
+        <v>3.6828439999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.133000</v>
+        <v>-120.133</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>13269.170621</v>
+        <v>13269.170620999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.685881</v>
+        <v>3.6858810000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1250.570000</v>
+        <v>1250.57</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.555000</v>
+        <v>-137.55500000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>13279.851068</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.688848</v>
+        <v>3.6888480000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1290.280000</v>
+        <v>1290.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.372000</v>
+        <v>-219.37200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>13290.779788</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.691883</v>
+        <v>3.6918829999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1359.100000</v>
+        <v>1359.1</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.657000</v>
+        <v>-355.65699999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>13301.489405</v>
@@ -3760,28 +4176,28 @@
         <v>3.694858</v>
       </c>
       <c r="BP14" s="1">
-        <v>1471.780000</v>
+        <v>1471.78</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.563000</v>
+        <v>-578.56299999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>13312.047248</v>
+        <v>13312.047248000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>3.697791</v>
+        <v>3.6977910000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1602.620000</v>
+        <v>1602.62</v>
       </c>
       <c r="BV14" s="1">
-        <v>-831.078000</v>
+        <v>-831.07799999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>13322.853089</v>
@@ -3790,105 +4206,105 @@
         <v>3.700793</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1753.030000</v>
+        <v>1753.03</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1107.020000</v>
+        <v>-1107.02</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>13334.992673</v>
+        <v>13334.992673000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.704165</v>
+        <v>3.7041650000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2170.970000</v>
+        <v>2170.9699999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1779.410000</v>
+        <v>-1779.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>13162.992037</v>
       </c>
       <c r="B15" s="1">
-        <v>3.656387</v>
+        <v>3.6563870000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1140.840000</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.316000</v>
+        <v>-258.31599999999997</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>13173.778534</v>
+        <v>13173.778533999999</v>
       </c>
       <c r="G15" s="1">
-        <v>3.659383</v>
+        <v>3.6593830000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1162.860000</v>
+        <v>1162.8599999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.248000</v>
+        <v>-217.24799999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>13184.240617</v>
+        <v>13184.240616999999</v>
       </c>
       <c r="L15" s="1">
-        <v>3.662289</v>
+        <v>3.6622889999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1190.870000</v>
+        <v>1190.8699999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.245000</v>
+        <v>-150.245</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>13194.444848</v>
+        <v>13194.444847999999</v>
       </c>
       <c r="Q15" s="1">
         <v>3.665124</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.160000</v>
+        <v>1198.1600000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.982000</v>
+        <v>-127.982</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>13204.955534</v>
+        <v>13204.955534000001</v>
       </c>
       <c r="V15" s="1">
-        <v>3.668043</v>
+        <v>3.6680429999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.078000</v>
+        <v>-107.078</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>13215.398304</v>
@@ -3897,43 +4313,43 @@
         <v>3.670944</v>
       </c>
       <c r="AB15" s="1">
-        <v>1212.950000</v>
+        <v>1212.95</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.983400</v>
+        <v>-89.983400000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>13226.183841</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.673940</v>
+        <v>3.67394</v>
       </c>
       <c r="AG15" s="1">
-        <v>1217.370000</v>
+        <v>1217.3699999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.356300</v>
+        <v>-85.356300000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>13236.695027</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.676860</v>
+        <v>3.67686</v>
       </c>
       <c r="AL15" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.774200</v>
+        <v>-88.774199999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>13247.538101</v>
@@ -3942,58 +4358,58 @@
         <v>3.679872</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1232.210000</v>
+        <v>1232.21</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.779000</v>
+        <v>-100.779</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>13258.601830</v>
+        <v>13258.60183</v>
       </c>
       <c r="AU15" s="1">
-        <v>3.682945</v>
+        <v>3.6829450000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.097000</v>
+        <v>-120.09699999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>13269.560935</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.685989</v>
+        <v>3.6859890000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.570000</v>
+        <v>-137.57</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>13280.211529</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.688948</v>
+        <v>3.6889479999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1290.300000</v>
+        <v>1290.3</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.333000</v>
+        <v>-219.333</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>13291.207837</v>
@@ -4002,467 +4418,467 @@
         <v>3.692002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.090000</v>
+        <v>1359.09</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.657000</v>
+        <v>-355.65699999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>13301.913486</v>
+        <v>13301.913485999999</v>
       </c>
       <c r="BO15" s="1">
         <v>3.694976</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.860000</v>
+        <v>1471.86</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.598000</v>
+        <v>-578.59799999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>13312.454494</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.697904</v>
+        <v>3.6979039999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1602.630000</v>
+        <v>1602.63</v>
       </c>
       <c r="BV15" s="1">
-        <v>-831.299000</v>
+        <v>-831.29899999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>13323.275217</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.700910</v>
+        <v>3.7009099999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1753.050000</v>
+        <v>1753.05</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1106.980000</v>
+        <v>-1106.98</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>13335.511030</v>
+        <v>13335.51103</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.704309</v>
+        <v>3.7043089999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2172.140000</v>
+        <v>2172.14</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1777.710000</v>
+        <v>-1777.71</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>13163.675987</v>
+        <v>13163.675987000001</v>
       </c>
       <c r="B16" s="1">
         <v>3.656577</v>
       </c>
       <c r="C16" s="1">
-        <v>1140.790000</v>
+        <v>1140.79</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.056000</v>
+        <v>-258.05599999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>13174.123749</v>
       </c>
       <c r="G16" s="1">
-        <v>3.659479</v>
+        <v>3.6594790000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1162.480000</v>
+        <v>1162.48</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.566000</v>
+        <v>-216.566</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>13184.591784</v>
       </c>
       <c r="L16" s="1">
-        <v>3.662387</v>
+        <v>3.6623869999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1190.580000</v>
+        <v>1190.58</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.065000</v>
+        <v>-150.065</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>13194.794523</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.665221</v>
+        <v>3.6652209999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.130000</v>
+        <v>1198.1300000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.974000</v>
+        <v>-127.974</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>13205.607281</v>
+        <v>13205.607281000001</v>
       </c>
       <c r="V16" s="1">
-        <v>3.668224</v>
+        <v>3.6682239999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1205.370000</v>
+        <v>1205.3699999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.067000</v>
+        <v>-107.06699999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>13216.055998</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.671127</v>
+        <v>3.6711269999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1212.820000</v>
+        <v>1212.82</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.077300</v>
+        <v>-90.077299999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>13226.561298</v>
+        <v>13226.561298000001</v>
       </c>
       <c r="AF16" s="1">
         <v>3.674045</v>
       </c>
       <c r="AG16" s="1">
-        <v>1217.330000</v>
+        <v>1217.33</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.401100</v>
+        <v>-85.4011</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>13237.076450</v>
+        <v>13237.07645</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.676966</v>
+        <v>3.6769660000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.809100</v>
+        <v>-88.809100000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>13247.898698</v>
+        <v>13247.898698000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.679972</v>
+        <v>3.6799719999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1232.240000</v>
+        <v>1232.24</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.782000</v>
+        <v>-100.782</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>13258.968395</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.683047</v>
+        <v>3.6830470000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.170000</v>
+        <v>1242.17</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.128000</v>
+        <v>-120.128</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>13269.914088</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.686087</v>
+        <v>3.6860870000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1250.580000</v>
+        <v>1250.58</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.580000</v>
+        <v>-137.58000000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>13280.633162</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.689065</v>
+        <v>3.6890649999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1290.280000</v>
+        <v>1290.28</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.355000</v>
+        <v>-219.35499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>13291.530236</v>
+        <v>13291.530236000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.692092</v>
+        <v>3.6920920000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1359.080000</v>
+        <v>1359.08</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.678000</v>
+        <v>-355.678</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>13302.311772</v>
+        <v>13302.311771999999</v>
       </c>
       <c r="BO16" s="1">
         <v>3.695087</v>
       </c>
       <c r="BP16" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.601000</v>
+        <v>-578.601</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>13312.866638</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.698019</v>
+        <v>3.6980189999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1602.650000</v>
+        <v>1602.65</v>
       </c>
       <c r="BV16" s="1">
-        <v>-831.550000</v>
+        <v>-831.55</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>13323.695793</v>
+        <v>13323.695793000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.701027</v>
+        <v>3.7010269999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1753.110000</v>
+        <v>1753.11</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1106.980000</v>
+        <v>-1106.98</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>13336.193488</v>
+        <v>13336.193488000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.704498</v>
+        <v>3.7044980000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>2170.380000</v>
+        <v>2170.38</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1776.500000</v>
+        <v>-1776.5</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>13164.018227</v>
       </c>
       <c r="B17" s="1">
-        <v>3.656672</v>
+        <v>3.6566719999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1141.040000</v>
+        <v>1141.04</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.263000</v>
+        <v>-258.26299999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>13174.469429</v>
+        <v>13174.469429000001</v>
       </c>
       <c r="G17" s="1">
-        <v>3.659575</v>
+        <v>3.6595749999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>1162.670000</v>
+        <v>1162.67</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.895000</v>
+        <v>-216.89500000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>13184.936503</v>
+        <v>13184.936503000001</v>
       </c>
       <c r="L17" s="1">
-        <v>3.662482</v>
+        <v>3.6624819999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1190.770000</v>
+        <v>1190.77</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.265000</v>
+        <v>-150.26499999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>13195.455162</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.665404</v>
+        <v>3.6654040000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.100000</v>
+        <v>1198.0999999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.876000</v>
+        <v>-127.876</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>13205.982253</v>
       </c>
       <c r="V17" s="1">
-        <v>3.668328</v>
+        <v>3.6683279999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.128000</v>
+        <v>-107.128</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>13216.445357</v>
+        <v>13216.445357000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.671235</v>
+        <v>3.6712349999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.060200</v>
+        <v>-90.060199999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>13226.906976</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.674141</v>
+        <v>3.6741410000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.312500</v>
+        <v>-85.3125</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>13237.423164</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.677062</v>
+        <v>3.6770619999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.786100</v>
+        <v>-88.786100000000005</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>13248.256773</v>
+        <v>13248.256772999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.680071</v>
+        <v>3.6800709999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1232.230000</v>
+        <v>1232.23</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.792000</v>
+        <v>-100.792</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>13259.386352</v>
@@ -4471,28 +4887,28 @@
         <v>3.683163</v>
       </c>
       <c r="AV17" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.109000</v>
+        <v>-120.10899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>13270.378840</v>
+        <v>13270.378839999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.686216</v>
+        <v>3.6862159999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1250.580000</v>
+        <v>1250.58</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.595000</v>
+        <v>-137.595</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>13280.936184</v>
@@ -4501,43 +4917,43 @@
         <v>3.689149</v>
       </c>
       <c r="BF17" s="1">
-        <v>1290.280000</v>
+        <v>1290.28</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.384000</v>
+        <v>-219.38399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>13291.913644</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.692198</v>
+        <v>3.6921979999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.080000</v>
+        <v>1359.08</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.696000</v>
+        <v>-355.69600000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>13302.731884</v>
+        <v>13302.731884000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.695203</v>
+        <v>3.6952029999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1471.840000</v>
+        <v>1471.84</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.573000</v>
+        <v>-578.57299999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>13313.281614</v>
@@ -4546,120 +4962,120 @@
         <v>3.698134</v>
       </c>
       <c r="BU17" s="1">
-        <v>1602.450000</v>
+        <v>1602.45</v>
       </c>
       <c r="BV17" s="1">
-        <v>-831.629000</v>
+        <v>-831.62900000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>13324.145199</v>
+        <v>13324.145199000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.701151</v>
+        <v>3.7011509999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1753.100000</v>
+        <v>1753.1</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1106.910000</v>
+        <v>-1106.9100000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>13336.548651</v>
+        <v>13336.548650999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.704597</v>
+        <v>3.7045970000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>2171.420000</v>
+        <v>2171.42</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1776.600000</v>
+        <v>-1776.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>13164.361466</v>
       </c>
       <c r="B18" s="1">
-        <v>3.656767</v>
+        <v>3.6567669999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1140.530000</v>
+        <v>1140.53</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.304000</v>
+        <v>-258.30399999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>13175.132084</v>
+        <v>13175.132084000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.659759</v>
+        <v>3.6597590000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.420000</v>
+        <v>1163.42</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.442000</v>
+        <v>-217.44200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>13185.595191</v>
       </c>
       <c r="L18" s="1">
-        <v>3.662665</v>
+        <v>3.6626650000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1190.550000</v>
+        <v>1190.55</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.173000</v>
+        <v>-150.173</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>13195.843034</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.665512</v>
+        <v>3.6655120000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.140000</v>
+        <v>1198.1400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.938000</v>
+        <v>-127.938</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>13206.326507</v>
       </c>
       <c r="V18" s="1">
-        <v>3.668424</v>
+        <v>3.6684239999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1205.410000</v>
+        <v>1205.4100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.029000</v>
+        <v>-107.029</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>13216.793581</v>
@@ -4668,58 +5084,58 @@
         <v>3.671332</v>
       </c>
       <c r="AB18" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.031500</v>
+        <v>-90.031499999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>13227.251200</v>
+        <v>13227.251200000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.674236</v>
+        <v>3.6742360000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.340400</v>
+        <v>-85.340400000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>13237.990610</v>
+        <v>13237.990610000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.677220</v>
+        <v>3.6772200000000002</v>
       </c>
       <c r="AL18" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.820300</v>
+        <v>-88.820300000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>13248.682339</v>
+        <v>13248.682339000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.680190</v>
+        <v>3.6801900000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1232.260000</v>
+        <v>1232.26</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.743000</v>
+        <v>-100.74299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>13259.695013</v>
@@ -4728,43 +5144,43 @@
         <v>3.683249</v>
       </c>
       <c r="AV18" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.115000</v>
+        <v>-120.11499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>13270.663575</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.686295</v>
+        <v>3.6862949999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.580000</v>
+        <v>-137.58000000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>13281.295784</v>
       </c>
       <c r="BE18" s="1">
-        <v>3.689249</v>
+        <v>3.6892489999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1290.300000</v>
+        <v>1290.3</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.344000</v>
+        <v>-219.34399999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>13292.303499</v>
@@ -4773,240 +5189,240 @@
         <v>3.692307</v>
       </c>
       <c r="BK18" s="1">
-        <v>1359.120000</v>
+        <v>1359.12</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.680000</v>
+        <v>-355.68</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>13303.288922</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.695358</v>
+        <v>3.6953580000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1471.850000</v>
+        <v>1471.85</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.530000</v>
+        <v>-578.53</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>13313.698925</v>
+        <v>13313.698925000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.698250</v>
+        <v>3.6982499999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1602.200000</v>
+        <v>1602.2</v>
       </c>
       <c r="BV18" s="1">
-        <v>-831.699000</v>
+        <v>-831.69899999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>13324.578671</v>
+        <v>13324.578670999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>3.701272</v>
+        <v>3.7012719999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1753.120000</v>
+        <v>1753.12</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1106.920000</v>
+        <v>-1106.92</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>13337.100711</v>
+        <v>13337.100710999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>3.704750</v>
+        <v>3.7047500000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2171.990000</v>
+        <v>2171.9899999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1778.290000</v>
+        <v>-1778.29</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>13165.009234</v>
+        <v>13165.009233999999</v>
       </c>
       <c r="B19" s="1">
-        <v>3.656947</v>
+        <v>3.6569470000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1140.790000</v>
+        <v>1140.79</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.141000</v>
+        <v>-258.14100000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>13175.502131</v>
+        <v>13175.502130999999</v>
       </c>
       <c r="G19" s="1">
-        <v>3.659862</v>
+        <v>3.6598619999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1163.030000</v>
+        <v>1163.03</v>
       </c>
       <c r="I19" s="1">
-        <v>-215.977000</v>
+        <v>-215.977</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>13185.972646</v>
       </c>
       <c r="L19" s="1">
-        <v>3.662770</v>
+        <v>3.6627700000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1190.690000</v>
+        <v>1190.69</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.067000</v>
+        <v>-150.06700000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>13196.187257</v>
       </c>
       <c r="Q19" s="1">
-        <v>3.665608</v>
+        <v>3.6656080000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.170000</v>
+        <v>1198.17</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.925000</v>
+        <v>-127.925</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>13206.670203</v>
       </c>
       <c r="V19" s="1">
-        <v>3.668520</v>
+        <v>3.66852</v>
       </c>
       <c r="W19" s="1">
-        <v>1205.450000</v>
+        <v>1205.45</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.019000</v>
+        <v>-107.01900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>13217.141773</v>
+        <v>13217.141772999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.671428</v>
+        <v>3.6714280000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1212.730000</v>
+        <v>1212.73</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.066000</v>
+        <v>-90.066000000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>13227.674318</v>
+        <v>13227.674317999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>3.674354</v>
+        <v>3.6743540000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1217.400000</v>
+        <v>1217.4000000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.334900</v>
+        <v>-85.334900000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>13238.121521</v>
+        <v>13238.121520999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.677256</v>
+        <v>3.6772559999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.776800</v>
+        <v>-88.776799999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>13248.977957</v>
+        <v>13248.977956999999</v>
       </c>
       <c r="AP19" s="1">
         <v>3.680272</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1232.240000</v>
+        <v>1232.24</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.786000</v>
+        <v>-100.786</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>13260.061593</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.683350</v>
+        <v>3.6833499999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.116000</v>
+        <v>-120.116</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>13270.988919</v>
+        <v>13270.988918999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>3.686386</v>
+        <v>3.6863860000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.590000</v>
+        <v>1250.5899999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.577000</v>
+        <v>-137.577</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>13281.656375</v>
@@ -5015,135 +5431,135 @@
         <v>3.689349</v>
       </c>
       <c r="BF19" s="1">
-        <v>1290.310000</v>
+        <v>1290.31</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.355000</v>
+        <v>-219.35499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>13293.051465</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.692514</v>
+        <v>3.6925140000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1359.100000</v>
+        <v>1359.1</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.680000</v>
+        <v>-355.68</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>13303.550811</v>
+        <v>13303.550810999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.695431</v>
+        <v>3.6954310000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.547000</v>
+        <v>-578.54700000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>13314.112625</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.698365</v>
+        <v>3.6983649999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1602.030000</v>
+        <v>1602.03</v>
       </c>
       <c r="BV19" s="1">
-        <v>-831.660000</v>
+        <v>-831.66</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>13325.000272</v>
+        <v>13325.000271999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.701389</v>
+        <v>3.7013889999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1753.130000</v>
+        <v>1753.13</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1107.000000</v>
+        <v>-1107</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>13337.938446</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.704983</v>
+        <v>3.7049829999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2170.830000</v>
+        <v>2170.83</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1776.610000</v>
+        <v>-1776.61</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>13165.383713</v>
+        <v>13165.383712999999</v>
       </c>
       <c r="B20" s="1">
-        <v>3.657051</v>
+        <v>3.6570510000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1140.700000</v>
+        <v>1140.7</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.348000</v>
+        <v>-258.34800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>13175.850787</v>
+        <v>13175.850786999999</v>
       </c>
       <c r="G20" s="1">
-        <v>3.659959</v>
+        <v>3.6599590000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.510000</v>
+        <v>1163.51</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.466000</v>
+        <v>-216.46600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>13186.315382</v>
+        <v>13186.315382000001</v>
       </c>
       <c r="L20" s="1">
         <v>3.662865</v>
       </c>
       <c r="M20" s="1">
-        <v>1190.760000</v>
+        <v>1190.76</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.244000</v>
+        <v>-150.244</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>13196.538424</v>
@@ -5152,300 +5568,300 @@
         <v>3.665705</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.140000</v>
+        <v>1198.1400000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.920000</v>
+        <v>-127.92</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>13207.086842</v>
+        <v>13207.086842000001</v>
       </c>
       <c r="V20" s="1">
-        <v>3.668635</v>
+        <v>3.6686350000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1205.510000</v>
+        <v>1205.51</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.069000</v>
+        <v>-107.069</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>13217.559407</v>
+        <v>13217.559407000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>3.671544</v>
+        <v>3.6715439999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1212.760000</v>
+        <v>1212.76</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.804100</v>
+        <v>-89.804100000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>13227.946096</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.674429</v>
+        <v>3.6744289999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1217.360000</v>
+        <v>1217.3599999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.356300</v>
+        <v>-85.356300000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>13238.472690</v>
+        <v>13238.472690000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>3.677354</v>
+        <v>3.6773539999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.818000</v>
+        <v>-88.817999999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>13249.340035</v>
+        <v>13249.340034999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.680372</v>
+        <v>3.6803720000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1232.280000</v>
+        <v>1232.28</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.777000</v>
+        <v>-100.777</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>13260.426612</v>
+        <v>13260.426611999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.683452</v>
+        <v>3.6834519999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1242.130000</v>
+        <v>1242.1300000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.128000</v>
+        <v>-120.128</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>13271.709606</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.686586</v>
+        <v>3.6865860000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.510000</v>
+        <v>1250.51</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.566000</v>
+        <v>-137.566</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>13282.377560</v>
+        <v>13282.377560000001</v>
       </c>
       <c r="BE20" s="1">
         <v>3.689549</v>
       </c>
       <c r="BF20" s="1">
-        <v>1290.300000</v>
+        <v>1290.3</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.360000</v>
+        <v>-219.36</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>13293.454216</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.692626</v>
+        <v>3.6926260000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.120000</v>
+        <v>1359.12</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.669000</v>
+        <v>-355.66899999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>13303.945594</v>
+        <v>13303.945594000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.695540</v>
+        <v>3.6955399999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.581000</v>
+        <v>-578.58100000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>13314.524269</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.698479</v>
+        <v>3.6984789999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1601.820000</v>
+        <v>1601.82</v>
       </c>
       <c r="BV20" s="1">
-        <v>-831.526000</v>
+        <v>-831.52599999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>13325.733357</v>
+        <v>13325.733356999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.701593</v>
+        <v>3.7015929999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1753.200000</v>
+        <v>1753.2</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1106.770000</v>
+        <v>-1106.77</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>13338.179992</v>
+        <v>13338.179991999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.705050</v>
+        <v>3.70505</v>
       </c>
       <c r="CE20" s="1">
-        <v>2169.470000</v>
+        <v>2169.4699999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1778.280000</v>
+        <v>-1778.28</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>13165.726970</v>
+        <v>13165.72697</v>
       </c>
       <c r="B21" s="1">
         <v>3.657146</v>
       </c>
       <c r="C21" s="1">
-        <v>1141.040000</v>
+        <v>1141.04</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.259000</v>
+        <v>-258.25900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>13176.193041</v>
       </c>
       <c r="G21" s="1">
-        <v>3.660054</v>
+        <v>3.6600540000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.070000</v>
+        <v>1163.07</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.111000</v>
+        <v>-216.11099999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>13186.664071</v>
+        <v>13186.664070999999</v>
       </c>
       <c r="L21" s="1">
-        <v>3.662962</v>
+        <v>3.6629619999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1190.620000</v>
+        <v>1190.6199999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-149.999000</v>
+        <v>-149.999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>13196.946136</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.665818</v>
+        <v>3.6658179999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.913000</v>
+        <v>-127.913</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>13207.359674</v>
+        <v>13207.359673999999</v>
       </c>
       <c r="V21" s="1">
-        <v>3.668711</v>
+        <v>3.6687110000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.047000</v>
+        <v>-107.047</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>13217.851019</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.671625</v>
+        <v>3.6716250000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1212.710000</v>
+        <v>1212.71</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.045100</v>
+        <v>-90.045100000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>13228.290814</v>
@@ -5454,360 +5870,360 @@
         <v>3.674525</v>
       </c>
       <c r="AG21" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.333200</v>
+        <v>-85.333200000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>13238.818400</v>
+        <v>13238.8184</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.677450</v>
+        <v>3.6774499999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1224.360000</v>
+        <v>1224.3599999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.806500</v>
+        <v>-88.8065</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>13249.699667</v>
+        <v>13249.699667000001</v>
       </c>
       <c r="AP21" s="1">
         <v>3.680472</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1232.240000</v>
+        <v>1232.24</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.777000</v>
+        <v>-100.777</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>13261.153306</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.683654</v>
+        <v>3.6836540000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>1242.180000</v>
+        <v>1242.18</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.096000</v>
+        <v>-120.096</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>13272.068540</v>
+        <v>13272.06854</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.686686</v>
+        <v>3.6866859999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.599000</v>
+        <v>-137.59899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>13282.740134</v>
       </c>
       <c r="BE21" s="1">
-        <v>3.689650</v>
+        <v>3.6896499999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1290.280000</v>
+        <v>1290.28</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.344000</v>
+        <v>-219.34399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>13293.829223</v>
+        <v>13293.829223000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.692730</v>
+        <v>3.6927300000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1359.040000</v>
+        <v>1359.04</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.658000</v>
+        <v>-355.65800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>13304.678692</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.695744</v>
+        <v>3.6957439999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.860000</v>
+        <v>1471.86</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.619000</v>
+        <v>-578.61900000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>13315.249943</v>
+        <v>13315.249943000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.698681</v>
+        <v>3.6986810000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1601.790000</v>
+        <v>1601.79</v>
       </c>
       <c r="BV21" s="1">
-        <v>-831.360000</v>
+        <v>-831.36</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>13325.847089</v>
+        <v>13325.847089000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.701624</v>
+        <v>3.7016239999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1753.170000</v>
+        <v>1753.17</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1106.950000</v>
+        <v>-1106.95</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>13338.715149</v>
       </c>
       <c r="CD21" s="1">
-        <v>3.705199</v>
+        <v>3.7051989999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2171.460000</v>
+        <v>2171.46</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1778.780000</v>
+        <v>-1778.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>13166.070177</v>
       </c>
       <c r="B22" s="1">
-        <v>3.657242</v>
+        <v>3.6572420000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1140.830000</v>
+        <v>1140.83</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.353000</v>
+        <v>-258.35300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>13176.618131</v>
+        <v>13176.618130999999</v>
       </c>
       <c r="G22" s="1">
-        <v>3.660172</v>
+        <v>3.6601720000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>1162.840000</v>
+        <v>1162.8399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.291000</v>
+        <v>-217.291</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>13187.095626</v>
       </c>
       <c r="L22" s="1">
-        <v>3.663082</v>
+        <v>3.6630820000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1190.560000</v>
+        <v>1190.56</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.241000</v>
+        <v>-150.24100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>13197.243767</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.665901</v>
+        <v>3.6659009999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.040000</v>
+        <v>1198.04</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.869000</v>
+        <v>-127.869</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>13207.703402</v>
+        <v>13207.703401999999</v>
       </c>
       <c r="V22" s="1">
-        <v>3.668807</v>
+        <v>3.6688070000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.038000</v>
+        <v>-107.038</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>13218.200701</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.671722</v>
+        <v>3.6717219999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1212.830000</v>
+        <v>1212.83</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.208100</v>
+        <v>-90.208100000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>13228.636559</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.674621</v>
+        <v>3.6746210000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.362900</v>
+        <v>-85.362899999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>13239.516271</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.677643</v>
+        <v>3.6776430000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1224.370000</v>
+        <v>1224.3699999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.799100</v>
+        <v>-88.799099999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>13250.427265</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.680674</v>
+        <v>3.6806739999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1232.260000</v>
+        <v>1232.26</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.802000</v>
+        <v>-100.80200000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>13261.519383</v>
+        <v>13261.519383000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.683755</v>
+        <v>3.6837550000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1242.190000</v>
+        <v>1242.19</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.111000</v>
+        <v>-120.111</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>13272.426853</v>
+        <v>13272.426853000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>3.686785</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.520000</v>
+        <v>1250.52</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.612000</v>
+        <v>-137.61199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>13283.098246</v>
       </c>
       <c r="BE22" s="1">
-        <v>3.689750</v>
+        <v>3.6897500000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1290.310000</v>
+        <v>1290.31</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.374000</v>
+        <v>-219.374</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>13294.520150</v>
+        <v>13294.52015</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.692922</v>
+        <v>3.6929219999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.070000</v>
+        <v>1359.07</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.672000</v>
+        <v>-355.67200000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>13304.795273</v>
@@ -5816,195 +6232,195 @@
         <v>3.695776</v>
       </c>
       <c r="BP22" s="1">
-        <v>1471.830000</v>
+        <v>1471.83</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.572000</v>
+        <v>-578.572</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>13315.379899</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.698717</v>
+        <v>3.6987169999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1601.730000</v>
+        <v>1601.73</v>
       </c>
       <c r="BV22" s="1">
-        <v>-831.022000</v>
+        <v>-831.02200000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>13326.296960</v>
+        <v>13326.29696</v>
       </c>
       <c r="BY22" s="1">
         <v>3.701749</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1753.040000</v>
+        <v>1753.04</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1106.830000</v>
+        <v>-1106.83</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>13339.254827</v>
+        <v>13339.254827000001</v>
       </c>
       <c r="CD22" s="1">
         <v>3.705349</v>
       </c>
       <c r="CE22" s="1">
-        <v>2171.060000</v>
+        <v>2171.06</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1776.520000</v>
+        <v>-1776.52</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>13166.496273</v>
+        <v>13166.496273000001</v>
       </c>
       <c r="B23" s="1">
-        <v>3.657360</v>
+        <v>3.6573600000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1141.050000</v>
+        <v>1141.05</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.325000</v>
+        <v>-258.32499999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>13176.882467</v>
+        <v>13176.882466999999</v>
       </c>
       <c r="G23" s="1">
-        <v>3.660245</v>
+        <v>3.6602450000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.010000</v>
+        <v>1163.01</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.375000</v>
+        <v>-216.375</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>13187.376040</v>
+        <v>13187.376039999999</v>
       </c>
       <c r="L23" s="1">
-        <v>3.663160</v>
+        <v>3.66316</v>
       </c>
       <c r="M23" s="1">
-        <v>1190.470000</v>
+        <v>1190.47</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.418000</v>
+        <v>-150.41800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>13197.597878</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.665999</v>
+        <v>3.6659989999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.000000</v>
+        <v>1198</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.811000</v>
+        <v>-127.81100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>13208.048585</v>
       </c>
       <c r="V23" s="1">
-        <v>3.668902</v>
+        <v>3.6689020000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1205.450000</v>
+        <v>1205.45</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.029000</v>
+        <v>-107.029</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>13218.547437</v>
+        <v>13218.547436999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>3.671819</v>
+        <v>3.6718190000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.952800</v>
+        <v>-89.952799999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>13229.320546</v>
+        <v>13229.320546000001</v>
       </c>
       <c r="AF23" s="1">
         <v>3.674811</v>
       </c>
       <c r="AG23" s="1">
-        <v>1217.440000</v>
+        <v>1217.44</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.282900</v>
+        <v>-85.282899999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>13239.864490</v>
+        <v>13239.86449</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.677740</v>
+        <v>3.67774</v>
       </c>
       <c r="AL23" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.759700</v>
+        <v>-88.759699999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>13250.804225</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.680779</v>
+        <v>3.6807789999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1232.260000</v>
+        <v>1232.26</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.787000</v>
+        <v>-100.78700000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>13261.882371</v>
@@ -6013,103 +6429,103 @@
         <v>3.683856</v>
       </c>
       <c r="AV23" s="1">
-        <v>1242.180000</v>
+        <v>1242.18</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.127000</v>
+        <v>-120.127</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>13273.111299</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.686975</v>
+        <v>3.6869749999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.510000</v>
+        <v>1250.51</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.625000</v>
+        <v>-137.625</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>13283.764869</v>
+        <v>13283.764869000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.689935</v>
+        <v>3.6899350000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1290.320000</v>
+        <v>1290.32</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.356000</v>
+        <v>-219.35599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>13294.985863</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.693052</v>
+        <v>3.6930519999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1359.090000</v>
+        <v>1359.09</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.698000</v>
+        <v>-355.69799999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>13305.191048</v>
+        <v>13305.191048000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.695886</v>
+        <v>3.6958859999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.850000</v>
+        <v>1471.85</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.581000</v>
+        <v>-578.58100000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>13315.818330</v>
+        <v>13315.81833</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.698838</v>
+        <v>3.6988379999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1601.940000</v>
+        <v>1601.94</v>
       </c>
       <c r="BV23" s="1">
-        <v>-830.868000</v>
+        <v>-830.86800000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>13326.726349</v>
       </c>
       <c r="BY23" s="1">
-        <v>3.701868</v>
+        <v>3.7018680000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1753.120000</v>
+        <v>1753.12</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1106.930000</v>
+        <v>-1106.93</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>13339.793947</v>
@@ -6118,135 +6534,135 @@
         <v>3.705498</v>
       </c>
       <c r="CE23" s="1">
-        <v>2170.280000</v>
+        <v>2170.2800000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1779.250000</v>
+        <v>-1779.25</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>13166.769567</v>
+        <v>13166.769566999999</v>
       </c>
       <c r="B24" s="1">
-        <v>3.657436</v>
+        <v>3.6574360000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1140.900000</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.132000</v>
+        <v>-258.13200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>13177.226690</v>
+        <v>13177.22669</v>
       </c>
       <c r="G24" s="1">
-        <v>3.660341</v>
+        <v>3.6603409999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1162.970000</v>
+        <v>1162.97</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.696000</v>
+        <v>-216.696</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>13187.717573</v>
       </c>
       <c r="L24" s="1">
-        <v>3.663255</v>
+        <v>3.6632549999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1190.350000</v>
+        <v>1190.3499999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.130000</v>
+        <v>-150.13</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>13197.941778</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.666095</v>
+        <v>3.6660949999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.030000</v>
+        <v>1198.03</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.735000</v>
+        <v>-127.735</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>13208.733064</v>
       </c>
       <c r="V24" s="1">
-        <v>3.669093</v>
+        <v>3.6690930000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.033000</v>
+        <v>-107.033</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>13219.241834</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.672012</v>
+        <v>3.6720120000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.118000</v>
+        <v>-90.117999999999995</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>13229.665725</v>
+        <v>13229.665725000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.674907</v>
+        <v>3.6749070000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1217.390000</v>
+        <v>1217.3900000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.362300</v>
+        <v>-85.362300000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>13240.210670</v>
+        <v>13240.21067</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.677836</v>
+        <v>3.6778360000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.810000</v>
+        <v>-88.81</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>13251.164816</v>
@@ -6255,165 +6671,165 @@
         <v>3.680879</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1232.240000</v>
+        <v>1232.24</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.789000</v>
+        <v>-100.789</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>13262.554449</v>
+        <v>13262.554448999999</v>
       </c>
       <c r="AU24" s="1">
         <v>3.684043</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.160000</v>
+        <v>1242.1600000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.136000</v>
+        <v>-120.136</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>13273.504130</v>
+        <v>13273.504129999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>3.687084</v>
       </c>
       <c r="BA24" s="1">
-        <v>1250.560000</v>
+        <v>1250.56</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.609000</v>
+        <v>-137.60900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>13284.217440</v>
+        <v>13284.21744</v>
       </c>
       <c r="BE24" s="1">
-        <v>3.690060</v>
+        <v>3.6900599999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1290.310000</v>
+        <v>1290.31</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.382000</v>
+        <v>-219.38200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>13295.374229</v>
+        <v>13295.374228999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.693160</v>
+        <v>3.6931600000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1359.080000</v>
+        <v>1359.08</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.722000</v>
+        <v>-355.72199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>13305.612648</v>
       </c>
       <c r="BO24" s="1">
-        <v>3.696004</v>
+        <v>3.6960039999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1471.880000</v>
+        <v>1471.88</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.586000</v>
+        <v>-578.58600000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>13316.242906</v>
+        <v>13316.242905999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>3.698956</v>
+        <v>3.6989559999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1602.120000</v>
+        <v>1602.12</v>
       </c>
       <c r="BV24" s="1">
-        <v>-830.891000</v>
+        <v>-830.89099999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>13327.147947</v>
+        <v>13327.147946999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.701986</v>
+        <v>3.7019860000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1753.250000</v>
+        <v>1753.25</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1106.850000</v>
+        <v>-1106.8499999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>13340.334090</v>
+        <v>13340.33409</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.705648</v>
+        <v>3.7056480000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2172.050000</v>
+        <v>2172.0500000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1777.700000</v>
+        <v>-1777.7</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>13167.110784</v>
       </c>
       <c r="B25" s="1">
-        <v>3.657531</v>
+        <v>3.6575310000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1140.990000</v>
+        <v>1140.99</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.476000</v>
+        <v>-258.476</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>13177.573425</v>
       </c>
       <c r="G25" s="1">
-        <v>3.660437</v>
+        <v>3.6604369999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.710000</v>
+        <v>1163.71</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.338000</v>
+        <v>-216.33799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>13188.314756</v>
@@ -6422,73 +6838,73 @@
         <v>3.663421</v>
       </c>
       <c r="M25" s="1">
-        <v>1190.730000</v>
+        <v>1190.73</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.152000</v>
+        <v>-150.15199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>13198.640470</v>
+        <v>13198.64047</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.666289</v>
+        <v>3.6662889999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.160000</v>
+        <v>1198.1600000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.937000</v>
+        <v>-127.937</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>13209.077784</v>
+        <v>13209.077783999999</v>
       </c>
       <c r="V25" s="1">
-        <v>3.669188</v>
+        <v>3.6691880000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.059000</v>
+        <v>-107.059</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>13219.594988</v>
+        <v>13219.594988000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.672110</v>
+        <v>3.67211</v>
       </c>
       <c r="AB25" s="1">
-        <v>1212.800000</v>
+        <v>1212.8</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.862100</v>
+        <v>-89.862099999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>13230.014445</v>
+        <v>13230.014445000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.675004</v>
+        <v>3.6750039999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1217.380000</v>
+        <v>1217.3800000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.330600</v>
+        <v>-85.330600000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>13240.881293</v>
@@ -6497,300 +6913,300 @@
         <v>3.678023</v>
       </c>
       <c r="AL25" s="1">
-        <v>1224.380000</v>
+        <v>1224.3800000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.792300</v>
+        <v>-88.792299999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>13251.838879</v>
+        <v>13251.838879000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.681066</v>
+        <v>3.6810659999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1232.260000</v>
+        <v>1232.26</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.766000</v>
+        <v>-100.76600000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>13262.975552</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.684160</v>
+        <v>3.6841599999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.170000</v>
+        <v>1242.17</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.147000</v>
+        <v>-120.14700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>13273.861250</v>
+        <v>13273.86125</v>
       </c>
       <c r="AZ25" s="1">
-        <v>3.687184</v>
+        <v>3.6871839999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1250.570000</v>
+        <v>1250.57</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.655000</v>
+        <v>-137.655</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>13284.575859</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.690160</v>
+        <v>3.6901600000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1290.290000</v>
+        <v>1290.29</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.348000</v>
+        <v>-219.34800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>13295.751685</v>
+        <v>13295.751684999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.693264</v>
+        <v>3.6932640000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1359.120000</v>
+        <v>1359.12</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.729000</v>
+        <v>-355.72899999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>13306.034279</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.696121</v>
+        <v>3.6961210000000002</v>
       </c>
       <c r="BP25" s="1">
-        <v>1471.870000</v>
+        <v>1471.87</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.600000</v>
+        <v>-578.6</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>13316.648635</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.699069</v>
+        <v>3.6990690000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1602.320000</v>
+        <v>1602.32</v>
       </c>
       <c r="BV25" s="1">
-        <v>-830.831000</v>
+        <v>-830.83100000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>13327.571035</v>
+        <v>13327.571035000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>3.702103</v>
+        <v>3.7021030000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1753.160000</v>
+        <v>1753.16</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1106.800000</v>
+        <v>-1106.8</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>13340.876217</v>
+        <v>13340.876217000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.705799</v>
+        <v>3.7057989999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>2169.960000</v>
+        <v>2169.96</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1777.120000</v>
+        <v>-1777.12</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>13167.455504</v>
       </c>
       <c r="B26" s="1">
-        <v>3.657627</v>
+        <v>3.6576270000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1140.840000</v>
+        <v>1140.8399999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.422000</v>
+        <v>-258.42200000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>13178.269280</v>
+        <v>13178.26928</v>
       </c>
       <c r="G26" s="1">
-        <v>3.660630</v>
+        <v>3.6606299999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1162.790000</v>
+        <v>1162.79</v>
       </c>
       <c r="I26" s="1">
-        <v>-216.673000</v>
+        <v>-216.673</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>13188.423378</v>
       </c>
       <c r="L26" s="1">
-        <v>3.663451</v>
+        <v>3.6634509999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1190.400000</v>
+        <v>1190.4000000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.039000</v>
+        <v>-150.03899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>13198.988660</v>
+        <v>13198.988660000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>3.666386</v>
+        <v>3.6663860000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.090000</v>
+        <v>1198.0899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.952000</v>
+        <v>-127.952</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>13209.422007</v>
+        <v>13209.422006999999</v>
       </c>
       <c r="V26" s="1">
-        <v>3.669284</v>
+        <v>3.6692840000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.090000</v>
+        <v>-107.09</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>13219.942651</v>
+        <v>13219.942650999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.672206</v>
+        <v>3.6722060000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1212.840000</v>
+        <v>1212.8399999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.977300</v>
+        <v>-89.9773</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>13230.670619</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.675186</v>
+        <v>3.6751860000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1217.420000</v>
+        <v>1217.42</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.366800</v>
+        <v>-85.366799999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>13241.258221</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.678127</v>
+        <v>3.6781269999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1224.390000</v>
+        <v>1224.3900000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.795800</v>
+        <v>-88.7958</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>13252.244110</v>
+        <v>13252.24411</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.681179</v>
+        <v>3.6811790000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1232.260000</v>
+        <v>1232.26</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.787000</v>
+        <v>-100.78700000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>13263.341139</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.684261</v>
+        <v>3.6842609999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.170000</v>
+        <v>1242.17</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.109000</v>
+        <v>-120.10899999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>13274.221873</v>
@@ -6799,13 +7215,13 @@
         <v>3.687284</v>
       </c>
       <c r="BA26" s="1">
-        <v>1250.530000</v>
+        <v>1250.53</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.676000</v>
+        <v>-137.67599999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>13284.939891</v>
@@ -6814,90 +7230,91 @@
         <v>3.690261</v>
       </c>
       <c r="BF26" s="1">
-        <v>1290.300000</v>
+        <v>1290.3</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.340000</v>
+        <v>-219.34</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>13296.175766</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.693382</v>
+        <v>3.6933820000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1359.090000</v>
+        <v>1359.09</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.703000</v>
+        <v>-355.70299999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>13306.430055</v>
+        <v>13306.430055000001</v>
       </c>
       <c r="BO26" s="1">
         <v>3.696231</v>
       </c>
       <c r="BP26" s="1">
-        <v>1471.870000</v>
+        <v>1471.87</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.538000</v>
+        <v>-578.53800000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>13317.087097</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.699191</v>
+        <v>3.6991909999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1602.540000</v>
+        <v>1602.54</v>
       </c>
       <c r="BV26" s="1">
-        <v>-830.881000</v>
+        <v>-830.88099999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>13327.993664</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.702220</v>
+        <v>3.7022200000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1753.040000</v>
+        <v>1753.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1106.800000</v>
+        <v>-1106.8</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>13341.412219</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.705948</v>
+        <v>3.7059479999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>2171.240000</v>
+        <v>2171.2399999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1779.230000</v>
+        <v>-1779.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>